--- a/20200217疫情数据.xlsx
+++ b/20200217疫情数据.xlsx
@@ -14,20 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>省份</t>
   </si>
   <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>治疗</t>
+    <t>现存确诊</t>
+  </si>
+  <si>
+    <t>累计确诊</t>
   </si>
   <si>
     <t>死亡</t>
   </si>
   <si>
+    <t>治愈</t>
+  </si>
+  <si>
     <t>湖北</t>
   </si>
   <si>
@@ -37,10 +40,10 @@
     <t>河南</t>
   </si>
   <si>
+    <t>安徽</t>
+  </si>
+  <si>
     <t>浙江</t>
-  </si>
-  <si>
-    <t>安徽</t>
   </si>
   <si>
     <t>江西</t>
@@ -485,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,583 +507,688 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
+        <v>49844</v>
+      </c>
+      <c r="D2">
         <v>58182</v>
-      </c>
-      <c r="D2">
-        <v>6642</v>
       </c>
       <c r="E2">
         <v>1696</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>6642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
+        <v>837</v>
+      </c>
+      <c r="D3">
         <v>1322</v>
-      </c>
-      <c r="D3">
-        <v>495</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
+        <v>750</v>
+      </c>
+      <c r="D4">
         <v>1246</v>
-      </c>
-      <c r="D4">
-        <v>470</v>
       </c>
       <c r="E4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1171</v>
+        <v>701</v>
       </c>
       <c r="D5">
-        <v>470</v>
+        <v>973</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>973</v>
+        <v>700</v>
       </c>
       <c r="D6">
-        <v>266</v>
+        <v>1171</v>
       </c>
       <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
+        <v>654</v>
+      </c>
+      <c r="D7">
         <v>930</v>
-      </c>
-      <c r="D7">
-        <v>275</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
+        <v>524</v>
+      </c>
+      <c r="D8">
         <v>1006</v>
-      </c>
-      <c r="D8">
-        <v>467</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
         <v>626</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>226</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
+        <v>366</v>
+      </c>
+      <c r="D10">
         <v>457</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
       </c>
       <c r="E10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
+        <v>362</v>
+      </c>
+      <c r="D11">
         <v>541</v>
-      </c>
-      <c r="D11">
-        <v>177</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
+        <v>356</v>
+      </c>
+      <c r="D12">
         <v>495</v>
-      </c>
-      <c r="D12">
-        <v>136</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
+        <v>339</v>
+      </c>
+      <c r="D13">
         <v>551</v>
-      </c>
-      <c r="D13">
-        <v>207</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
+        <v>263</v>
+      </c>
+      <c r="D14">
         <v>381</v>
-      </c>
-      <c r="D14">
-        <v>114</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
+        <v>206</v>
+      </c>
+      <c r="D15">
         <v>290</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>84</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
+        <v>190</v>
+      </c>
+      <c r="D16">
         <v>331</v>
-      </c>
-      <c r="D16">
-        <v>140</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
+        <v>189</v>
+      </c>
+      <c r="D17">
         <v>301</v>
-      </c>
-      <c r="D17">
-        <v>109</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
+        <v>185</v>
+      </c>
+      <c r="D18">
         <v>238</v>
-      </c>
-      <c r="D18">
-        <v>51</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
+        <v>166</v>
+      </c>
+      <c r="D19">
         <v>240</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>74</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
+        <v>129</v>
+      </c>
+      <c r="D20">
         <v>171</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>42</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
+        <v>106</v>
+      </c>
+      <c r="D21">
         <v>162</v>
-      </c>
-      <c r="D21">
-        <v>52</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
+        <v>98</v>
+      </c>
+      <c r="D22">
         <v>146</v>
-      </c>
-      <c r="D22">
-        <v>47</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
+        <v>79</v>
+      </c>
+      <c r="D23">
         <v>121</v>
-      </c>
-      <c r="D23">
-        <v>41</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24">
+        <v>79</v>
+      </c>
+      <c r="D24">
         <v>129</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>50</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
+        <v>77</v>
+      </c>
+      <c r="D25">
         <v>125</v>
-      </c>
-      <c r="D25">
-        <v>45</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
+        <v>64</v>
+      </c>
+      <c r="D26">
         <v>72</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>8</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
+        <v>62</v>
+      </c>
+      <c r="D27">
         <v>75</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28">
+        <v>58</v>
+      </c>
+      <c r="D28">
         <v>89</v>
-      </c>
-      <c r="D28">
-        <v>30</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="D29">
         <v>57</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="D30">
         <v>70</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>33</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
         <v>90</v>
-      </c>
-      <c r="D31">
-        <v>54</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
         <v>20</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>10</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>5</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
         <v>18</v>
       </c>
-      <c r="D34">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>13</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
